--- a/data/Zweier_Vergleich_onSite.xlsx
+++ b/data/Zweier_Vergleich_onSite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Thesis Stuff\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C571347-AD83-4A49-9A24-C245A8D109AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EB9AC6-8B9F-4192-BA53-288A87104BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1920" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,37 +2686,37 @@
         <v>40</v>
       </c>
       <c r="B61">
-        <v>4.2333333333333334</v>
+        <v>3.3</v>
       </c>
       <c r="E61">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="F61">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G61">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I61">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J61">
-        <v>11.999999999999998</v>
+        <v>18</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>13</v>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -2724,37 +2724,37 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>3.3</v>
+        <v>4.2333333333333334</v>
       </c>
       <c r="E62">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="F62">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G62">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I62">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="K62">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>23.999999999999996</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
